--- a/biology/Microbiologie/Cyclidiidae/Cyclidiidae.xlsx
+++ b/biology/Microbiologie/Cyclidiidae/Cyclidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyclidiidae sont une famille de ciliés de l'ordre des Scuticociliatida (classe des Oligohymenophorea).
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Cyclidium, dérivé du latin cyclus, « cercle », en référence à la forme de ces ciliés qui, selon Muller, peuvent être « complanatus, orbicularis, vel ovatus (aplati, circulaire ou ovale) »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Cyclidium, dérivé du latin cyclus, « cercle », en référence à la forme de ces ciliés qui, selon Muller, peuvent être « complanatus, orbicularis, vel ovatus (aplati, circulaire ou ovale) ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cyclidiidae ont une taille très petite (&lt;&lt; 80 µm) à petite (&lt; 80 µm). Leur forme est ovoïde, à allongée-ovoïde, souvent avec des zones antérieures et postérieures glabres. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène), clairsemée, mais plus dense dans la moitié antérieure du corps chez certains genres. Ils ont un cil caudal ou plusieurs cils caudaux. Leur région buccale est peu proéminente, avec un cytostome en position variable et une ciliature buccale peu visible. Ils ont une dicinétie parorale[note 1], souvent peu visible, typiquement avec sa courbe postcytostomiale (c. à d. à l'arrière du cytostome) ne s'étendant ni en avant, ni à gauche du cytostome. Leurs polycinécies orales[note 2] sont souvent très fragmentées. Leur macronoyau est globulaire à ellipsoïde. Leur micronoyau est gros, souvent situé dans le tiers antérieur du corps. Vacuole contractile et cytoprocte sont présents. Les espèce de la famille des Cyclidiidae sont bactérivores[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cyclidiidae ont une taille très petite (&lt;&lt; 80 µm) à petite (&lt; 80 µm). Leur forme est ovoïde, à allongée-ovoïde, souvent avec des zones antérieures et postérieures glabres. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène), clairsemée, mais plus dense dans la moitié antérieure du corps chez certains genres. Ils ont un cil caudal ou plusieurs cils caudaux. Leur région buccale est peu proéminente, avec un cytostome en position variable et une ciliature buccale peu visible. Ils ont une dicinétie parorale[note 1], souvent peu visible, typiquement avec sa courbe postcytostomiale (c. à d. à l'arrière du cytostome) ne s'étendant ni en avant, ni à gauche du cytostome. Leurs polycinécies orales[note 2] sont souvent très fragmentées. Leur macronoyau est globulaire à ellipsoïde. Leur micronoyau est gros, souvent situé dans le tiers antérieur du corps. Vacuole contractile et cytoprocte sont présents. Les espèce de la famille des Cyclidiidae sont bactérivores.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cyclidiidae vivent dans des habitats marins, saumâtres, d'eau douce et terrestres. Ils ont une large répartition avec des espèces interstitielles[note 3] anaérobies et coprozoïques[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cyclidiidae vivent dans des habitats marins, saumâtres, d'eau douce et terrestres. Ils ont une large répartition avec des espèces interstitielles[note 3] anaérobies et coprozoïques.
 </t>
         </is>
       </c>
@@ -604,15 +622,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 mai 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 mai 2024) :
 Acucyclidium Gao, Gao, Wang, Katz &amp; Song, 2014
-Apocyclidium  Foissner et al., 2002 (selon Taxonomicon[4])
+Apocyclidium  Foissner et al., 2002 (selon Taxonomicon)
 Cristigera Roux, 1899
 Cyclidium O.F.Müller, 1773 genre type
 Espèce type : Cyclidium glaucoma Müller, 1773
-Cyclidium O.F.Müller, 1786 (Erreur de Kahl 1931[5])
+Cyclidium O.F.Müller, 1786 (Erreur de Kahl 1931)
 Echinocyclidium Jankowski, 1980
 Falcicyclidium Fan, Hu, Al-Farraj, Clamp &amp; Song, 2011
 Isocyclidium Esteban, Finlay &amp; Embley, 1993
@@ -632,7 +652,7 @@
 Paracyclidium Grolière, de Puytorac &amp; Grain, 1980
 Protocyclidium Alekperov, 1993
 Pseudocyclidium Small &amp; Lynn, 1985
-selon The Taxonomicon  (2 juin 2024)[6] :
+selon The Taxonomicon  (2 juin 2024) :
 Abathostoma Berger, 1994
 Cristigera Roux, 1899
 Cyclidiumᵀ O.F. Müller, 1773 genre type
@@ -669,9 +689,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Cyclidiidae Ehrenberg, 1838[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Cyclidiidae Ehrenberg, 1838.
 </t>
         </is>
       </c>
